--- a/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
+++ b/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>U_A</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,132 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>-250</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>-190</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <v>-120</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>-40</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
+++ b/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>U_A</t>
   </si>
@@ -73,6 +73,36 @@
       <t>U_E</t>
     </r>
   </si>
+  <si>
+    <t>U_G</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_G</t>
+    </r>
+  </si>
+  <si>
+    <t>U_pp</t>
+  </si>
+  <si>
+    <t>Auflösung</t>
+  </si>
 </sst>
 </file>
 
@@ -116,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -433,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +475,7 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -457,8 +488,26 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-13</v>
       </c>
@@ -471,8 +520,20 @@
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>2.72</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-13</v>
       </c>
@@ -485,8 +546,20 @@
       <c r="E4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>5.44</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>-11</v>
       </c>
@@ -499,8 +572,20 @@
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>450</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>8.24</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>-5</v>
       </c>
@@ -513,8 +598,20 @@
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>10.9</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -527,8 +624,20 @@
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>750</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>13.5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -541,8 +650,20 @@
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>900</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>11</v>
       </c>
@@ -550,13 +671,14 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>-170</v>
+        <v>-120</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>14</v>
       </c>
@@ -570,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -583,8 +705,26 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4</v>
       </c>
@@ -597,8 +737,20 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -611,8 +763,20 @@
       <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -625,8 +789,20 @@
       <c r="E16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>450</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>3.24</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.7</v>
       </c>
@@ -639,8 +815,20 @@
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>-0.3</v>
       </c>
@@ -653,8 +841,20 @@
       <c r="E18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>750</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>5.44</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>-1.4</v>
       </c>
@@ -667,8 +867,20 @@
       <c r="E19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>900</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>6.48</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>-2.2999999999999998</v>
       </c>
@@ -681,8 +893,9 @@
       <c r="E20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>-3.2</v>
       </c>

--- a/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
+++ b/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>U_A</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>Auflösung</t>
+  </si>
+  <si>
+    <t>f [kHz]</t>
+  </si>
+  <si>
+    <t>RG1</t>
+  </si>
+  <si>
+    <t>RG2</t>
+  </si>
+  <si>
+    <t>RG3</t>
+  </si>
+  <si>
+    <t>RG3/C</t>
   </si>
 </sst>
 </file>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +490,21 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -506,8 +535,38 @@
       <c r="L2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-13</v>
       </c>
@@ -532,8 +591,35 @@
       <c r="K3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <v>19.2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>7.36</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.28</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>1.28</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-13</v>
       </c>
@@ -558,8 +644,35 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>7.36</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.28</v>
+      </c>
+      <c r="T4">
+        <v>0.2</v>
+      </c>
+      <c r="U4">
+        <v>1.28</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>-11</v>
       </c>
@@ -584,8 +697,35 @@
       <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0.8</v>
+      </c>
+      <c r="O5">
+        <v>18.8</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>7.36</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.28</v>
+      </c>
+      <c r="T5">
+        <v>0.2</v>
+      </c>
+      <c r="U5">
+        <v>1.28</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>-5</v>
       </c>
@@ -610,8 +750,35 @@
       <c r="K6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>7.2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.28</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>1.22</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -636,8 +803,35 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>13.6</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>6.88</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.28</v>
+      </c>
+      <c r="T7">
+        <v>0.2</v>
+      </c>
+      <c r="U7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -662,8 +856,35 @@
       <c r="K8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>8.4</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>5.68</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1.26</v>
+      </c>
+      <c r="T8">
+        <v>0.2</v>
+      </c>
+      <c r="U8">
+        <v>0.8</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>11</v>
       </c>
@@ -677,8 +898,35 @@
         <v>10</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>3.6</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>3.32</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1.22</v>
+      </c>
+      <c r="T9">
+        <v>0.2</v>
+      </c>
+      <c r="U9">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>14</v>
       </c>
@@ -691,8 +939,93 @@
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>40</v>
+      </c>
+      <c r="O10">
+        <v>1.88</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>1.84</v>
+      </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>1.06</v>
+      </c>
+      <c r="T10">
+        <v>0.2</v>
+      </c>
+      <c r="U10">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.2</v>
+      </c>
+      <c r="S11">
+        <v>0.76</v>
+      </c>
+      <c r="T11">
+        <v>0.2</v>
+      </c>
+      <c r="U11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.2</v>
+      </c>
+      <c r="S12">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.1</v>
+      </c>
+      <c r="U12">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="V12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -723,8 +1056,35 @@
       <c r="L13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>0.38</v>
+      </c>
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+      <c r="S13">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="V13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4</v>
       </c>
@@ -749,8 +1109,35 @@
       <c r="K14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <v>0.26</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.05</v>
+      </c>
+      <c r="S14">
+        <v>0.248</v>
+      </c>
+      <c r="T14">
+        <v>0.05</v>
+      </c>
+      <c r="U14">
+        <v>2.75E-2</v>
+      </c>
+      <c r="V14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -776,7 +1163,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>

--- a/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
+++ b/Praktikum/PAP 2.2/242 - Spannungsverstärker/Tabellen/Werte Tabelle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>U_A</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>RG3/C</t>
+  </si>
+  <si>
+    <t>U_pp [V]</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W21"/>
+  <dimension ref="B1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.7</v>
       </c>
@@ -1214,8 +1217,20 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>-0.3</v>
       </c>
@@ -1240,8 +1255,17 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0.3</v>
+      </c>
+      <c r="O18">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>-1.4</v>
       </c>
@@ -1266,8 +1290,17 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0.4</v>
+      </c>
+      <c r="O19">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>-2.2999999999999998</v>
       </c>
@@ -1281,8 +1314,17 @@
         <v>10</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>-3.2</v>
       </c>
@@ -1294,6 +1336,114 @@
       </c>
       <c r="E21">
         <v>10</v>
+      </c>
+      <c r="N21">
+        <v>0.65</v>
+      </c>
+      <c r="O21">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>0.8</v>
+      </c>
+      <c r="O22">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0.88</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>1.26</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>1.3</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>1.32</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>1.32</v>
+      </c>
+      <c r="P27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>1.32</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>1.32</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>1.28</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
